--- a/test/perl_output/merge5.xlsx
+++ b/test/perl_output/merge5.xlsx
@@ -81,10 +81,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -395,37 +401,37 @@
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="36" customHeight="1">
       <c r="B5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="2:6" ht="36" customHeight="1">
       <c r="B6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="2:6" ht="36" customHeight="1">
       <c r="B7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="2:6" ht="36" customHeight="1">
       <c r="B8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="2:6" ht="36" customHeight="1">
       <c r="B9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="F9" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
